--- a/plantilla_dinosaurios_100.xlsx
+++ b/plantilla_dinosaurios_100.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Notas</t>
   </si>
   <si>
+    <t>Guion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tyrannosaurus Rex</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t>Sí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo lo que sabes del T-Rex... es mentira. Mira... Hollywood nos vendió un monstruo de dientes afilados siempre visibles, ¡pero la ciencia dice otra cosa! Estudios recientes confirman que tenía labios... sí, labios de lagarto que tapaban sus dientes para protegerlos. Y prepárate, porque tampoco rugía. No abría la boca para gritar. Hacía un sonido grave... infrasónico... que podías sentir en tu pecho antes de verlo. ¿Te da menos miedo ahora... o más? Sígueme para la verdad prehistórica.</t>
   </si>
   <si>
     <t>Triceratops</t>
@@ -440,10 +446,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,6 +988,8 @@
     <col customWidth="1" min="3" max="3" width="33.57421875"/>
     <col customWidth="1" min="5" max="5" width="18.57421875"/>
     <col customWidth="1" min="6" max="6" width="22.57421875"/>
+    <col customWidth="1" min="7" max="7" width="20.421875"/>
+    <col customWidth="1" min="8" max="8" width="62.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1003,22 +1014,28 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="62.399999999999999" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1026,16 +1043,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1043,16 +1060,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1060,16 +1077,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1077,16 +1094,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1094,16 +1111,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1111,16 +1128,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1128,16 +1145,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1145,16 +1162,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1162,16 +1179,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1179,16 +1196,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1196,16 +1213,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1213,16 +1230,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1230,16 +1247,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1247,16 +1264,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1264,16 +1281,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1281,16 +1298,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1298,16 +1315,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1315,16 +1332,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1332,16 +1349,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1349,16 +1366,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1366,16 +1383,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1383,16 +1400,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -1400,16 +1417,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1417,16 +1434,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1434,16 +1451,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1451,16 +1468,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1468,16 +1485,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1485,16 +1502,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1502,16 +1519,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1519,16 +1536,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1536,16 +1553,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1553,16 +1570,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1570,16 +1587,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1587,16 +1604,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1604,16 +1621,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1621,16 +1638,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -1638,16 +1655,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1655,16 +1672,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1672,16 +1689,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -1689,16 +1706,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1706,16 +1723,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -1723,16 +1740,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -1740,16 +1757,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -1757,16 +1774,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -1774,16 +1791,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1791,16 +1808,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -1808,16 +1825,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -1825,16 +1842,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -1842,16 +1859,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -1859,16 +1876,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1876,16 +1893,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -1893,16 +1910,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -1910,16 +1927,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -1927,16 +1944,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1944,16 +1961,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -1961,16 +1978,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -1978,16 +1995,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -1995,16 +2012,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -2012,16 +2029,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -2029,16 +2046,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -2046,16 +2063,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -2063,16 +2080,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -2080,16 +2097,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -2097,16 +2114,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -2114,16 +2131,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -2131,16 +2148,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -2148,16 +2165,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -2165,16 +2182,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -2182,16 +2199,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -2199,16 +2216,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -2216,16 +2233,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -2233,16 +2250,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -2250,16 +2267,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -2267,16 +2284,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -2284,16 +2301,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -2301,16 +2318,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -2318,16 +2335,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -2335,16 +2352,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -2352,16 +2369,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -2369,16 +2386,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -2386,16 +2403,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -2403,16 +2420,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
@@ -2420,16 +2437,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
@@ -2437,16 +2454,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -2454,16 +2471,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
@@ -2471,16 +2488,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -2488,16 +2505,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -2505,16 +2522,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -2522,16 +2539,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -2539,16 +2556,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -2556,16 +2573,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -2573,16 +2590,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -2590,16 +2607,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -2607,16 +2624,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -2624,16 +2641,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -2641,16 +2658,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -2658,16 +2675,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -2675,16 +2692,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -2692,16 +2709,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2728,62 +2745,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
